--- a/data/mail_send_hsitory.xlsx
+++ b/data/mail_send_hsitory.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,367 +437,332 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>순번</t>
+          <t>사업명</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>사업명</t>
+          <t>공고_담당자</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>공고_담당자</t>
+          <t>전화번호</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>전화번호</t>
+          <t>공고일</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>공고일</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>post_id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1074</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020년도 EU 협력진흥사업 신규과제 공모</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2020년도 EU 협력진흥사업 신규과제 공모</t>
+          <t>구주아프리카협력담당관 : 이세원</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>044-202-4354</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2020.09.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3114914</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3114914</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020년도 하반기 한-EU 공동연구지원사업 신규과제 공모</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>구주아프리카협력담당관 : 이세원</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>044-202-4354</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>2020.09.29</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3114914</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>3114914</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1073</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2020년도 하반기 한-EU 공동연구지원사업 신규과제 공모</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>구주아프리카협력담당관 : 이세원</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>044-202-4354</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2020.09.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3114913</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>3114913</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1072</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020년도 제5차 국민생활안전 긴급대응연구사업 신규과제 공모</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020년도 제5차 국민생활안전 긴급대응연구사업 신규과제 공모</t>
+          <t>공공기술기반팀 : 허대성</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>044-202-4639</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2020.09.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3122773</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3122773</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020년도 미래국방혁신기술개발사업 신규과제 선정결과 공고</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>공공기술기반팀 : 허대성</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>044-202-4639</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2020.09.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3122773</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3122773</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1071</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020년도 미래국방혁신기술개발사업 신규과제 선정결과 공고</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2020.09.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3103448</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3103448</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020년도 기초연구실지원(기초연구 정책분야) 신규과제 공모</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>기초연구진흥과 : 오늘</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>044-202-4538</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2020.09.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3088961</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3088961</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020년도 과학기술정보통신부 비대면 기업홍보 지원사업(언택트 IR) 통합공고</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>정보통신산업기반과 : 신유진</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>044-202-6245</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2020.09.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3088727</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3088727</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020년도 제4차 국민생활안전 긴급대응연구사업 신규과제 재공모</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>공공기술기반팀 : 허대성</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>044-202-4639</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2020.09.18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3103448</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>3103448</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020년도 기초연구실지원(기초연구 정책분야) 신규과제 공모</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>기초연구진흥과 : 오늘</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>044-202-4538</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2020.09.10</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3088961</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>3088961</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1069</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020년도 과학기술정보통신부 비대면 기업홍보 지원사업(언택트 IR) 통합공고</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>정보통신산업기반과 : 신유진</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>044-202-6245</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2020.09.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3088727</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3088727</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1068</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020년도 제4차 국민생활안전 긴급대응연구사업 신규과제 재공모</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3088726</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3088726</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020년도 재난안전플랫폼기술개발사업 신규과제 선정결과 공고</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>공공기술기반팀 : 허대성</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>044-202-4639</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2020.09.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3088726</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>3088726</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1067</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2020년도 재난안전플랫폼기술개발사업 신규과제 선정결과 공고</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2020.09.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3081711</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3081711</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020년도 국민생활안전 긴급대응연구사업 신규과제 선정결과 공고</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>공공기술기반팀 : 허대성</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>044-202-4639</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>2020.09.07</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3081711</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>3081711</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1066</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2020년도 국민생활안전 긴급대응연구사업 신규과제 선정결과 공고</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>공공기술기반팀 : 허대성</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>044-202-4639</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2020.09.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3081710</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="F10" t="n">
         <v>3081710</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>1065</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020년도 제2차 해외고급과학자초빙사업 Plus (Brain Pool+) 연장공고</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2020년도 제2차 해외고급과학자초빙사업 Plus (Brain Pool+) 연장공고</t>
+          <t>미래인재양성과 : 양성녀</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>미래인재양성과 : 양성녀</t>
+          <t>044-202-4836</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>044-202-4836</t>
+          <t>2020.09.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2020.09.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>https://www.msit.go.kr/web/msipContents/contentsView.do?cateId=_tstb17&amp;artId=3067835</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="F11" t="n">
         <v>3067835</v>
       </c>
     </row>
